--- a/test_sampling_SD/networks/Circle/models_config_Poisson2D_f.xlsx
+++ b/test_sampling_SD/networks/Circle/models_config_Poisson2D_f.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t>Configuration</t>
   </si>
@@ -61,12 +61,24 @@
     <t>n_data</t>
   </si>
   <si>
+    <t>Training loss</t>
+  </si>
+  <si>
     <t>Exact BC.</t>
   </si>
   <si>
     <t>No exact BC.</t>
   </si>
   <si>
+    <t>Correction</t>
+  </si>
+  <si>
+    <t>FEM</t>
+  </si>
+  <si>
+    <t>PhiFEM</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -76,19 +88,25 @@
     <t>sine</t>
   </si>
   <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>0.01</t>
   </si>
   <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
     <t>10.0</t>
   </si>
   <si>
-    <t>1000</t>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2000</t>
   </si>
   <si>
     <t>500</t>
@@ -97,31 +115,19 @@
     <t>1</t>
   </si>
   <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>[10, 20, 30, 50, 30, 20, 10]</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>[20, 20, 20, 20, 20]</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>[10, 20, 30, 50, 30, 20, 10]</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>tanh</t>
   </si>
 </sst>
 </file>
@@ -145,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +167,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -201,6 +213,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -218,13 +233,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1371603</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>731521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -242,83 +257,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10106025" y="381000"/>
-          <a:ext cx="1371603" cy="731521"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1371603</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>731521</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="model_0.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11487150" y="381000"/>
-          <a:ext cx="1371603" cy="731521"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1371603</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>731521</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="model_1_exact_bc.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10106025" y="1143000"/>
+          <a:off x="10106025" y="571500"/>
           <a:ext cx="1371603" cy="731521"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -343,7 +282,83 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="model_1.png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="model_0.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11487150" y="571500"/>
+          <a:ext cx="1371603" cy="731521"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>914402</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>685801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="corr_fem_0_exact_bc.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="571500"/>
+          <a:ext cx="914402" cy="685801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>914402</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>685801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="corr_fem_0.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -356,8 +371,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11487150" y="1143000"/>
-          <a:ext cx="1371603" cy="731521"/>
+          <a:off x="13849350" y="571500"/>
+          <a:ext cx="914402" cy="685801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>914402</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>685801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="corr_phifem_0_exact_bc.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14830425" y="571500"/>
+          <a:ext cx="914402" cy="685801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>914402</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>685801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="corr_phifem_0.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15811500" y="571500"/>
+          <a:ext cx="914402" cy="685801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -381,58 +472,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="model_2_exact_bc.png"/>
+        <xdr:cNvPr id="8" name="Picture 7" descr="model_1_exact_bc.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10106025" y="1905000"/>
-          <a:ext cx="1371603" cy="731521"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1371603</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>731521</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="model_2.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11487150" y="1905000"/>
+          <a:off x="10106025" y="1333500"/>
           <a:ext cx="1371603" cy="731521"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -457,45 +510,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="model_3_exact_bc.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10106025" y="2667000"/>
-          <a:ext cx="1371603" cy="731521"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1371603</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>731521</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="model_3.png"/>
+        <xdr:cNvPr id="9" name="Picture 8" descr="model_2_exact_bc.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -508,7 +523,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11487150" y="2667000"/>
+          <a:off x="10106025" y="2095500"/>
+          <a:ext cx="1371603" cy="731521"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1371603</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>731521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="model_3_exact_bc.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10106025" y="2857500"/>
           <a:ext cx="1371603" cy="731521"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -806,7 +859,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -825,9 +878,10 @@
     <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="18" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,216 +905,278 @@
       <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:18">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="60" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="O3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="60" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="60" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="60" customHeight="1">
+    <row r="5" spans="1:18" ht="60" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="60" customHeight="1">
+    <row r="6" spans="1:18" ht="60" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>32</v>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="J6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="60" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:H2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
